--- a/data/pca/factorExposure/factorExposure_2011-09-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.0216791830333937</v>
+        <v>0.01670926372075314</v>
       </c>
       <c r="C2">
-        <v>-0.01696816156582782</v>
+        <v>-0.01107225290722222</v>
       </c>
       <c r="D2">
-        <v>0.0438140437713243</v>
+        <v>0.03389267508025726</v>
       </c>
       <c r="E2">
-        <v>-0.06566726742867028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03702423120828721</v>
+      </c>
+      <c r="F2">
+        <v>-0.02304976322222985</v>
+      </c>
+      <c r="G2">
+        <v>-0.005623225973365209</v>
+      </c>
+      <c r="H2">
+        <v>-0.01332396216747538</v>
+      </c>
+      <c r="I2">
+        <v>-2.341058056641066e-05</v>
+      </c>
+      <c r="J2">
+        <v>0.06505900623575613</v>
+      </c>
+      <c r="K2">
+        <v>0.06992147464713419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08359548959298244</v>
+        <v>0.0956881600239155</v>
       </c>
       <c r="C4">
-        <v>-0.04881810781152258</v>
+        <v>-0.05067652499071558</v>
       </c>
       <c r="D4">
-        <v>0.0509979063481806</v>
+        <v>0.03259446770675102</v>
       </c>
       <c r="E4">
-        <v>-0.01690799505651897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02963338644270696</v>
+      </c>
+      <c r="F4">
+        <v>-0.07505901888250367</v>
+      </c>
+      <c r="G4">
+        <v>-0.03097369230394775</v>
+      </c>
+      <c r="H4">
+        <v>0.00362665764516657</v>
+      </c>
+      <c r="I4">
+        <v>-0.06277634087885105</v>
+      </c>
+      <c r="J4">
+        <v>-0.04381151268960085</v>
+      </c>
+      <c r="K4">
+        <v>-0.04891490600330515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1189212953836295</v>
+        <v>0.1302117078918753</v>
       </c>
       <c r="C6">
-        <v>0.002035883330015082</v>
+        <v>-0.004680994531932346</v>
       </c>
       <c r="D6">
-        <v>0.04458104851333848</v>
+        <v>0.06448699056900284</v>
       </c>
       <c r="E6">
-        <v>-0.07196024894799782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03133567796543656</v>
+      </c>
+      <c r="F6">
+        <v>-0.03239877388861574</v>
+      </c>
+      <c r="G6">
+        <v>-0.05314940784064628</v>
+      </c>
+      <c r="H6">
+        <v>0.1936858926180261</v>
+      </c>
+      <c r="I6">
+        <v>0.09761814986373051</v>
+      </c>
+      <c r="J6">
+        <v>-0.4383895752053898</v>
+      </c>
+      <c r="K6">
+        <v>-0.01690993812633594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07351396036881433</v>
+        <v>0.07190925573839346</v>
       </c>
       <c r="C7">
-        <v>-0.02392533547733756</v>
+        <v>-0.05190255807472841</v>
       </c>
       <c r="D7">
-        <v>0.05793182309911691</v>
+        <v>0.04718669668335906</v>
       </c>
       <c r="E7">
-        <v>-0.05642222031320066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.03728089874871498</v>
+      </c>
+      <c r="F7">
+        <v>-0.03592350782148252</v>
+      </c>
+      <c r="G7">
+        <v>0.01171481975454482</v>
+      </c>
+      <c r="H7">
+        <v>-0.004228370009116465</v>
+      </c>
+      <c r="I7">
+        <v>-0.05210822710398621</v>
+      </c>
+      <c r="J7">
+        <v>0.05328064266184959</v>
+      </c>
+      <c r="K7">
+        <v>-0.06633931276989179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04042417863142853</v>
+        <v>0.04242802549986302</v>
       </c>
       <c r="C8">
-        <v>-0.05370133089394634</v>
+        <v>-0.02495669521219057</v>
       </c>
       <c r="D8">
-        <v>-0.005741745934658009</v>
+        <v>-0.005036267080055946</v>
       </c>
       <c r="E8">
-        <v>-0.05777033474739744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.06271272896864628</v>
+      </c>
+      <c r="F8">
+        <v>-0.04122479561240463</v>
+      </c>
+      <c r="G8">
+        <v>-0.06576405648885378</v>
+      </c>
+      <c r="H8">
+        <v>0.03335756329177227</v>
+      </c>
+      <c r="I8">
+        <v>-0.09170490248936798</v>
+      </c>
+      <c r="J8">
+        <v>-0.02491794923025888</v>
+      </c>
+      <c r="K8">
+        <v>-0.04303761297101156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0799132264814469</v>
+        <v>0.08715572264649354</v>
       </c>
       <c r="C9">
-        <v>-0.05761531010967496</v>
+        <v>-0.05062468471872091</v>
       </c>
       <c r="D9">
-        <v>0.04427860281142278</v>
+        <v>0.03232472155554649</v>
       </c>
       <c r="E9">
-        <v>-0.01758641204491532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02470254496371763</v>
+      </c>
+      <c r="F9">
+        <v>-0.05711007271451433</v>
+      </c>
+      <c r="G9">
+        <v>-0.04352608879652042</v>
+      </c>
+      <c r="H9">
+        <v>0.0009442593719104756</v>
+      </c>
+      <c r="I9">
+        <v>-0.07201383821358595</v>
+      </c>
+      <c r="J9">
+        <v>-0.04480206837555481</v>
+      </c>
+      <c r="K9">
+        <v>-0.02836055864631933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01798039157834862</v>
+        <v>0.0668265139934605</v>
       </c>
       <c r="C10">
-        <v>0.1640555190204014</v>
+        <v>0.1981106891246347</v>
       </c>
       <c r="D10">
-        <v>-0.001658408670731223</v>
+        <v>0.0182285356323675</v>
       </c>
       <c r="E10">
-        <v>-0.09051320530261482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0569131178645921</v>
+      </c>
+      <c r="F10">
+        <v>-0.03144521007119336</v>
+      </c>
+      <c r="G10">
+        <v>0.03565623586115874</v>
+      </c>
+      <c r="H10">
+        <v>0.008135440446132926</v>
+      </c>
+      <c r="I10">
+        <v>0.03002527075630167</v>
+      </c>
+      <c r="J10">
+        <v>0.02650003747283444</v>
+      </c>
+      <c r="K10">
+        <v>0.01645479073768655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07615170674445229</v>
+        <v>0.0764456757706569</v>
       </c>
       <c r="C11">
-        <v>-0.05727080498878642</v>
+        <v>-0.0580956409329027</v>
       </c>
       <c r="D11">
-        <v>0.0311278303615024</v>
+        <v>0.03186450704129455</v>
       </c>
       <c r="E11">
-        <v>-0.03509095916425735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02025262755614654</v>
+      </c>
+      <c r="F11">
+        <v>-0.01395947214625627</v>
+      </c>
+      <c r="G11">
+        <v>-0.07080222536511621</v>
+      </c>
+      <c r="H11">
+        <v>-0.0179150959171287</v>
+      </c>
+      <c r="I11">
+        <v>-0.07569088766054216</v>
+      </c>
+      <c r="J11">
+        <v>0.03183825247878053</v>
+      </c>
+      <c r="K11">
+        <v>0.04825740848576882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07239685650877284</v>
+        <v>0.07343342023091376</v>
       </c>
       <c r="C12">
-        <v>-0.04332386952850716</v>
+        <v>-0.0474951652313128</v>
       </c>
       <c r="D12">
-        <v>0.0395734538593069</v>
+        <v>0.02646069524248849</v>
       </c>
       <c r="E12">
-        <v>-0.03109782855830988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0135835296722336</v>
+      </c>
+      <c r="F12">
+        <v>-0.03086489530879225</v>
+      </c>
+      <c r="G12">
+        <v>-0.05568888527011361</v>
+      </c>
+      <c r="H12">
+        <v>0.008278918518374043</v>
+      </c>
+      <c r="I12">
+        <v>-0.09060134969457787</v>
+      </c>
+      <c r="J12">
+        <v>0.0305489145829376</v>
+      </c>
+      <c r="K12">
+        <v>0.0230150568326024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08138843266492585</v>
+        <v>0.07063687637507458</v>
       </c>
       <c r="C13">
-        <v>-0.03498878558192139</v>
+        <v>-0.03543695907942492</v>
       </c>
       <c r="D13">
-        <v>0.02507803261322653</v>
+        <v>-0.01103421682733194</v>
       </c>
       <c r="E13">
-        <v>-0.02034539307273897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01248277715108101</v>
+      </c>
+      <c r="F13">
+        <v>-0.04254024617338639</v>
+      </c>
+      <c r="G13">
+        <v>-0.02299670555884222</v>
+      </c>
+      <c r="H13">
+        <v>-0.0003801395053438562</v>
+      </c>
+      <c r="I13">
+        <v>-0.1021331360152913</v>
+      </c>
+      <c r="J13">
+        <v>0.0111404875163579</v>
+      </c>
+      <c r="K13">
+        <v>-0.09926894715180652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.034531301796642</v>
+        <v>0.04362961398221719</v>
       </c>
       <c r="C14">
-        <v>0.004585681121909701</v>
+        <v>-0.007488101017521678</v>
       </c>
       <c r="D14">
-        <v>0.03015068034638066</v>
+        <v>0.03252006410634101</v>
       </c>
       <c r="E14">
-        <v>-0.01133543447401038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004670015972868627</v>
+      </c>
+      <c r="F14">
+        <v>-0.03298223055535643</v>
+      </c>
+      <c r="G14">
+        <v>-0.02956288408044472</v>
+      </c>
+      <c r="H14">
+        <v>-0.04411917631438713</v>
+      </c>
+      <c r="I14">
+        <v>-0.06019991768240669</v>
+      </c>
+      <c r="J14">
+        <v>-0.05321369283961599</v>
+      </c>
+      <c r="K14">
+        <v>-0.04533908457150349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05764130026848979</v>
+        <v>0.04644807513240915</v>
       </c>
       <c r="C15">
-        <v>-0.01545715954581835</v>
+        <v>-0.01663797244748027</v>
       </c>
       <c r="D15">
-        <v>0.009080870182169784</v>
+        <v>-0.01214241180642481</v>
       </c>
       <c r="E15">
-        <v>-0.006166638804344228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.003015567289459228</v>
+      </c>
+      <c r="F15">
+        <v>-0.0344124931238765</v>
+      </c>
+      <c r="G15">
+        <v>-0.01253157096133472</v>
+      </c>
+      <c r="H15">
+        <v>-0.001714224199180221</v>
+      </c>
+      <c r="I15">
+        <v>-0.02141004263200964</v>
+      </c>
+      <c r="J15">
+        <v>-0.0397090614123745</v>
+      </c>
+      <c r="K15">
+        <v>-0.07304512840488984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06480418046953954</v>
+        <v>0.07503562963669501</v>
       </c>
       <c r="C16">
-        <v>-0.05772989896208026</v>
+        <v>-0.05789297952468495</v>
       </c>
       <c r="D16">
-        <v>0.03647365673340692</v>
+        <v>0.03188076496903502</v>
       </c>
       <c r="E16">
-        <v>-0.02555849945189161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01600836027164376</v>
+      </c>
+      <c r="F16">
+        <v>-0.03419520680859076</v>
+      </c>
+      <c r="G16">
+        <v>-0.04386360301913319</v>
+      </c>
+      <c r="H16">
+        <v>-0.01280544602665631</v>
+      </c>
+      <c r="I16">
+        <v>-0.05417515550295845</v>
+      </c>
+      <c r="J16">
+        <v>0.0222896819596048</v>
+      </c>
+      <c r="K16">
+        <v>0.02370918547115994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.07078478366406309</v>
+        <v>0.06358310830230433</v>
       </c>
       <c r="C20">
-        <v>-0.05322833390787976</v>
+        <v>-0.04025877171436006</v>
       </c>
       <c r="D20">
-        <v>0.01650973155385602</v>
+        <v>0.009577396850667204</v>
       </c>
       <c r="E20">
-        <v>-0.0261117146351778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01768916695489208</v>
+      </c>
+      <c r="F20">
+        <v>-0.01415165719624452</v>
+      </c>
+      <c r="G20">
+        <v>-0.0430985370744941</v>
+      </c>
+      <c r="H20">
+        <v>-0.01693735116975782</v>
+      </c>
+      <c r="I20">
+        <v>-0.1233463027923352</v>
+      </c>
+      <c r="J20">
+        <v>-0.005878015453499596</v>
+      </c>
+      <c r="K20">
+        <v>-0.0312049363898338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03931406375279826</v>
+        <v>0.03229686428915956</v>
       </c>
       <c r="C21">
-        <v>-0.02440247965103016</v>
+        <v>-0.02520209437343977</v>
       </c>
       <c r="D21">
-        <v>-0.02478641700428098</v>
+        <v>-0.03326810308778194</v>
       </c>
       <c r="E21">
-        <v>-0.01708221786432776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.006348644792911126</v>
+      </c>
+      <c r="F21">
+        <v>-0.02058591892590757</v>
+      </c>
+      <c r="G21">
+        <v>-0.01491232473831766</v>
+      </c>
+      <c r="H21">
+        <v>0.07564572189504763</v>
+      </c>
+      <c r="I21">
+        <v>-0.02421937533207141</v>
+      </c>
+      <c r="J21">
+        <v>-0.04272606427990809</v>
+      </c>
+      <c r="K21">
+        <v>-0.05628088011931182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.117923759603772</v>
+        <v>0.09540602974919939</v>
       </c>
       <c r="C22">
-        <v>-0.1095382583633631</v>
+        <v>-0.0663723590909117</v>
       </c>
       <c r="D22">
-        <v>-0.0266021704516854</v>
+        <v>-0.2899501366766775</v>
       </c>
       <c r="E22">
-        <v>-0.03792602970016559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.108030489609451</v>
+      </c>
+      <c r="F22">
+        <v>-0.4579398090939242</v>
+      </c>
+      <c r="G22">
+        <v>0.3178829296544989</v>
+      </c>
+      <c r="H22">
+        <v>0.03101088589764324</v>
+      </c>
+      <c r="I22">
+        <v>0.1877744382090785</v>
+      </c>
+      <c r="J22">
+        <v>0.07380706594484771</v>
+      </c>
+      <c r="K22">
+        <v>0.04609734133184026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1189211491797224</v>
+        <v>0.09636925841977667</v>
       </c>
       <c r="C23">
-        <v>-0.1088877548823529</v>
+        <v>-0.06667798714145037</v>
       </c>
       <c r="D23">
-        <v>-0.02472297828412182</v>
+        <v>-0.2894870684218332</v>
       </c>
       <c r="E23">
-        <v>-0.03893136698765716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.1090918227860779</v>
+      </c>
+      <c r="F23">
+        <v>-0.4624694506088065</v>
+      </c>
+      <c r="G23">
+        <v>0.3130751826684193</v>
+      </c>
+      <c r="H23">
+        <v>0.02960122480167709</v>
+      </c>
+      <c r="I23">
+        <v>0.1907184064955371</v>
+      </c>
+      <c r="J23">
+        <v>0.06880453594777622</v>
+      </c>
+      <c r="K23">
+        <v>0.04641016426128296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08605343604617707</v>
+        <v>0.08520640746813998</v>
       </c>
       <c r="C24">
-        <v>-0.05474598908190484</v>
+        <v>-0.05665319131990632</v>
       </c>
       <c r="D24">
-        <v>0.03236086466206802</v>
+        <v>0.02425442365612275</v>
       </c>
       <c r="E24">
-        <v>-0.03829291347102273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0240113383201687</v>
+      </c>
+      <c r="F24">
+        <v>-0.03369092560497091</v>
+      </c>
+      <c r="G24">
+        <v>-0.06489912611347215</v>
+      </c>
+      <c r="H24">
+        <v>0.005609390064573894</v>
+      </c>
+      <c r="I24">
+        <v>-0.06782969482752123</v>
+      </c>
+      <c r="J24">
+        <v>0.01251362841538871</v>
+      </c>
+      <c r="K24">
+        <v>0.03255615607704395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08303584155715132</v>
+        <v>0.07943547900877737</v>
       </c>
       <c r="C25">
-        <v>-0.04732445941103757</v>
+        <v>-0.0458425576996354</v>
       </c>
       <c r="D25">
-        <v>0.04859060689174104</v>
+        <v>0.03414590204407344</v>
       </c>
       <c r="E25">
-        <v>-0.0475344222824676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01908324422764318</v>
+      </c>
+      <c r="F25">
+        <v>-0.0430236560872238</v>
+      </c>
+      <c r="G25">
+        <v>-0.06217997478736752</v>
+      </c>
+      <c r="H25">
+        <v>-0.005987886005418332</v>
+      </c>
+      <c r="I25">
+        <v>-0.08046637417888235</v>
+      </c>
+      <c r="J25">
+        <v>0.01599462024618434</v>
+      </c>
+      <c r="K25">
+        <v>0.04660025661953736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05347984011302619</v>
+        <v>0.04770563295962386</v>
       </c>
       <c r="C26">
-        <v>-0.01333436761804391</v>
+        <v>-0.02288852979355472</v>
       </c>
       <c r="D26">
-        <v>-0.00150847723333411</v>
+        <v>-0.02021777398832153</v>
       </c>
       <c r="E26">
-        <v>-0.03677328636800148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0163307803342314</v>
+      </c>
+      <c r="F26">
+        <v>-0.02277249562847067</v>
+      </c>
+      <c r="G26">
+        <v>-0.0164592501507776</v>
+      </c>
+      <c r="H26">
+        <v>-0.02380545360774821</v>
+      </c>
+      <c r="I26">
+        <v>-0.0341482757710091</v>
+      </c>
+      <c r="J26">
+        <v>-0.02507548249617324</v>
+      </c>
+      <c r="K26">
+        <v>-0.1231314148115189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04331068162853327</v>
+        <v>0.08177218784833187</v>
       </c>
       <c r="C28">
-        <v>0.2978729758587487</v>
+        <v>0.2979148374807418</v>
       </c>
       <c r="D28">
-        <v>-0.0006648026520575643</v>
+        <v>-0.003235886535921471</v>
       </c>
       <c r="E28">
-        <v>-0.07549135470839645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02536180003737014</v>
+      </c>
+      <c r="F28">
+        <v>-0.01180994978952185</v>
+      </c>
+      <c r="G28">
+        <v>-0.02130055512709018</v>
+      </c>
+      <c r="H28">
+        <v>0.04535488418827927</v>
+      </c>
+      <c r="I28">
+        <v>0.03462315704027503</v>
+      </c>
+      <c r="J28">
+        <v>0.0150056248059109</v>
+      </c>
+      <c r="K28">
+        <v>-0.06785361231660308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05919068212757682</v>
+        <v>0.05533355226977721</v>
       </c>
       <c r="C29">
-        <v>0.002826948010438756</v>
+        <v>-0.009901944093752153</v>
       </c>
       <c r="D29">
-        <v>0.03057640182664751</v>
+        <v>0.02150933563222512</v>
       </c>
       <c r="E29">
-        <v>-0.02580799596698334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01886513725752102</v>
+      </c>
+      <c r="F29">
+        <v>-0.03574877552092135</v>
+      </c>
+      <c r="G29">
+        <v>-0.02894286856748389</v>
+      </c>
+      <c r="H29">
+        <v>-0.0547619952425249</v>
+      </c>
+      <c r="I29">
+        <v>-0.04869768100900843</v>
+      </c>
+      <c r="J29">
+        <v>-0.03136799682524032</v>
+      </c>
+      <c r="K29">
+        <v>-0.03752678613276697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1533146435677603</v>
+        <v>0.1325164871447214</v>
       </c>
       <c r="C30">
-        <v>-0.0675726893945168</v>
+        <v>-0.05588766572101361</v>
       </c>
       <c r="D30">
-        <v>0.069034032127039</v>
+        <v>0.02148204289045746</v>
       </c>
       <c r="E30">
-        <v>-0.05413398519308062</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04433488618206032</v>
+      </c>
+      <c r="F30">
+        <v>-0.1146472040104386</v>
+      </c>
+      <c r="G30">
+        <v>-0.07358628905919835</v>
+      </c>
+      <c r="H30">
+        <v>0.09969502462446628</v>
+      </c>
+      <c r="I30">
+        <v>-0.3281855898828793</v>
+      </c>
+      <c r="J30">
+        <v>0.04685366620052125</v>
+      </c>
+      <c r="K30">
+        <v>-0.2190621070196999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.06013750864282576</v>
+        <v>0.04961619457175061</v>
       </c>
       <c r="C31">
-        <v>-0.01513585040291315</v>
+        <v>-0.03545586388034636</v>
       </c>
       <c r="D31">
-        <v>0.02515208850322052</v>
+        <v>0.006644520355118806</v>
       </c>
       <c r="E31">
-        <v>-0.005028780304122541</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006144032286366477</v>
+      </c>
+      <c r="F31">
+        <v>-0.02152053068559691</v>
+      </c>
+      <c r="G31">
+        <v>0.0002395261202616316</v>
+      </c>
+      <c r="H31">
+        <v>-0.0481721091280669</v>
+      </c>
+      <c r="I31">
+        <v>-0.04534689680492518</v>
+      </c>
+      <c r="J31">
+        <v>-0.03510744884865504</v>
+      </c>
+      <c r="K31">
+        <v>-0.01509707493174004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.0471343853967283</v>
+        <v>0.0511499877380418</v>
       </c>
       <c r="C32">
-        <v>-0.01394160364309328</v>
+        <v>0.004868920050011365</v>
       </c>
       <c r="D32">
-        <v>0.01129031846730116</v>
+        <v>-0.02636639465141316</v>
       </c>
       <c r="E32">
-        <v>-0.00582224904172488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.007534826920774951</v>
+      </c>
+      <c r="F32">
+        <v>-0.08401214166146338</v>
+      </c>
+      <c r="G32">
+        <v>0.00978418366565945</v>
+      </c>
+      <c r="H32">
+        <v>-0.003496471640700453</v>
+      </c>
+      <c r="I32">
+        <v>0.02083459067309614</v>
+      </c>
+      <c r="J32">
+        <v>0.06198180934648477</v>
+      </c>
+      <c r="K32">
+        <v>-0.1322940244719511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1040553667086597</v>
+        <v>0.1044837122167839</v>
       </c>
       <c r="C33">
-        <v>-0.030823870067123</v>
+        <v>-0.04648361402480893</v>
       </c>
       <c r="D33">
-        <v>0.03424421611604604</v>
+        <v>0.007778423981952621</v>
       </c>
       <c r="E33">
-        <v>-0.01071345518360367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.008706537893062236</v>
+      </c>
+      <c r="F33">
+        <v>-0.03479770490888515</v>
+      </c>
+      <c r="G33">
+        <v>-0.01814566024627532</v>
+      </c>
+      <c r="H33">
+        <v>-0.02254818069948381</v>
+      </c>
+      <c r="I33">
+        <v>-0.06608628015508365</v>
+      </c>
+      <c r="J33">
+        <v>-0.02761772624690053</v>
+      </c>
+      <c r="K33">
+        <v>-0.03301124156245831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.0645838082120105</v>
+        <v>0.07067987893153237</v>
       </c>
       <c r="C34">
-        <v>-0.05614830308424965</v>
+        <v>-0.0480800588979353</v>
       </c>
       <c r="D34">
-        <v>0.02123327251037871</v>
+        <v>0.01852250448878504</v>
       </c>
       <c r="E34">
-        <v>-0.02601177863498394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01674632364251031</v>
+      </c>
+      <c r="F34">
+        <v>-0.02474143291915739</v>
+      </c>
+      <c r="G34">
+        <v>-0.04662747853562251</v>
+      </c>
+      <c r="H34">
+        <v>-0.02349948246062052</v>
+      </c>
+      <c r="I34">
+        <v>-0.06074430726390475</v>
+      </c>
+      <c r="J34">
+        <v>-0.003971459521866625</v>
+      </c>
+      <c r="K34">
+        <v>0.05097755814916066</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.0429441506147854</v>
+        <v>0.03703475708231709</v>
       </c>
       <c r="C35">
-        <v>-0.01043383993387832</v>
+        <v>-0.01862571979671433</v>
       </c>
       <c r="D35">
-        <v>0.01913670376506769</v>
+        <v>0.01115183180553759</v>
       </c>
       <c r="E35">
-        <v>-0.005091330916766978</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.009716170391002272</v>
+      </c>
+      <c r="F35">
+        <v>-0.01850240514263736</v>
+      </c>
+      <c r="G35">
+        <v>-0.001682159716048094</v>
+      </c>
+      <c r="H35">
+        <v>-0.01737878476749201</v>
+      </c>
+      <c r="I35">
+        <v>-0.06745159521664909</v>
+      </c>
+      <c r="J35">
+        <v>-0.00469269476057689</v>
+      </c>
+      <c r="K35">
+        <v>-0.00370881575234191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03874484850875048</v>
+        <v>0.0346426717699298</v>
       </c>
       <c r="C36">
-        <v>-0.01659317059455228</v>
+        <v>-0.01398469826698234</v>
       </c>
       <c r="D36">
-        <v>0.01213328656562232</v>
+        <v>-0.001452958244987176</v>
       </c>
       <c r="E36">
-        <v>-0.03259111968138839</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02553696224697392</v>
+      </c>
+      <c r="F36">
+        <v>-0.03301793343381334</v>
+      </c>
+      <c r="G36">
+        <v>-0.02310946569776885</v>
+      </c>
+      <c r="H36">
+        <v>-0.01198055604307069</v>
+      </c>
+      <c r="I36">
+        <v>-0.07180634213431891</v>
+      </c>
+      <c r="J36">
+        <v>-0.01647003010224545</v>
+      </c>
+      <c r="K36">
+        <v>-0.04091113756151552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06661795852164192</v>
+        <v>0.05598166266128626</v>
       </c>
       <c r="C38">
-        <v>-0.00597379100841955</v>
+        <v>-0.03124351206814624</v>
       </c>
       <c r="D38">
-        <v>-0.02123715139010725</v>
+        <v>-0.0333648609264995</v>
       </c>
       <c r="E38">
-        <v>0.01268862180639036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01451001856708801</v>
+      </c>
+      <c r="F38">
+        <v>0.002135044312927135</v>
+      </c>
+      <c r="G38">
+        <v>-0.01019970749832284</v>
+      </c>
+      <c r="H38">
+        <v>-0.01932051279086427</v>
+      </c>
+      <c r="I38">
+        <v>0.03346385881524429</v>
+      </c>
+      <c r="J38">
+        <v>0.01761715966809422</v>
+      </c>
+      <c r="K38">
+        <v>-0.05734759878505413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09618873008229684</v>
+        <v>0.100367968269712</v>
       </c>
       <c r="C39">
-        <v>-0.04281406474112388</v>
+        <v>-0.05000411501803378</v>
       </c>
       <c r="D39">
-        <v>0.04014102319019792</v>
+        <v>0.02760619136731269</v>
       </c>
       <c r="E39">
-        <v>-0.008885711549919803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0107743283703343</v>
+      </c>
+      <c r="F39">
+        <v>-0.03934824421157506</v>
+      </c>
+      <c r="G39">
+        <v>-0.05668264784432171</v>
+      </c>
+      <c r="H39">
+        <v>0.00255798225192845</v>
+      </c>
+      <c r="I39">
+        <v>-0.1062811630202431</v>
+      </c>
+      <c r="J39">
+        <v>0.1217185497448862</v>
+      </c>
+      <c r="K39">
+        <v>0.01342218809521996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07384892581814301</v>
+        <v>0.04918169594145048</v>
       </c>
       <c r="C40">
-        <v>-0.01576719143100259</v>
+        <v>-0.04252484080133721</v>
       </c>
       <c r="D40">
-        <v>0.02798062935141018</v>
+        <v>-0.03725980089720941</v>
       </c>
       <c r="E40">
-        <v>-0.02427269027448218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0001987620713322485</v>
+      </c>
+      <c r="F40">
+        <v>-0.06694716213010245</v>
+      </c>
+      <c r="G40">
+        <v>-0.08459381353033063</v>
+      </c>
+      <c r="H40">
+        <v>0.08641805491100869</v>
+      </c>
+      <c r="I40">
+        <v>-0.1955257907272593</v>
+      </c>
+      <c r="J40">
+        <v>0.2092876709313376</v>
+      </c>
+      <c r="K40">
+        <v>-0.05820338483991514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06386707645848451</v>
+        <v>0.0495957428235002</v>
       </c>
       <c r="C41">
-        <v>-0.02721498837905145</v>
+        <v>-0.03309674308378072</v>
       </c>
       <c r="D41">
-        <v>0.00776395572173972</v>
+        <v>0.004140734826399121</v>
       </c>
       <c r="E41">
-        <v>0.003851589965752408</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002707573245845483</v>
+      </c>
+      <c r="F41">
+        <v>0.01744801329272856</v>
+      </c>
+      <c r="G41">
+        <v>-0.01683850064176499</v>
+      </c>
+      <c r="H41">
+        <v>-0.03230810896859636</v>
+      </c>
+      <c r="I41">
+        <v>-0.02322318546741493</v>
+      </c>
+      <c r="J41">
+        <v>0.03096749953234015</v>
+      </c>
+      <c r="K41">
+        <v>-0.03426118192487158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06404131903394263</v>
+        <v>0.06193644018846079</v>
       </c>
       <c r="C43">
-        <v>-0.01537419552675239</v>
+        <v>-0.03439039277249011</v>
       </c>
       <c r="D43">
-        <v>0.01670724900382845</v>
+        <v>0.009987290296023566</v>
       </c>
       <c r="E43">
-        <v>-0.01997342014048748</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02134931819466016</v>
+      </c>
+      <c r="F43">
+        <v>-0.01193973905071149</v>
+      </c>
+      <c r="G43">
+        <v>-0.006366357862962556</v>
+      </c>
+      <c r="H43">
+        <v>-0.05243337918361406</v>
+      </c>
+      <c r="I43">
+        <v>-0.01962713127761585</v>
+      </c>
+      <c r="J43">
+        <v>0.007311508393630188</v>
+      </c>
+      <c r="K43">
+        <v>-0.009929886064509974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09381551826782039</v>
+        <v>0.09553858234447021</v>
       </c>
       <c r="C44">
-        <v>-0.05712650093996363</v>
+        <v>-0.05477975467160225</v>
       </c>
       <c r="D44">
-        <v>0.01762346398490828</v>
+        <v>-0.007195145696970427</v>
       </c>
       <c r="E44">
-        <v>-0.08112644022896902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.09684319290290859</v>
+      </c>
+      <c r="F44">
+        <v>-0.0955827864888084</v>
+      </c>
+      <c r="G44">
+        <v>-0.1196583181580684</v>
+      </c>
+      <c r="H44">
+        <v>-0.02544530161049139</v>
+      </c>
+      <c r="I44">
+        <v>-0.1250418477896681</v>
+      </c>
+      <c r="J44">
+        <v>0.04566242200371317</v>
+      </c>
+      <c r="K44">
+        <v>-0.01115006868365683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03181677711778724</v>
+        <v>0.04604780038466666</v>
       </c>
       <c r="C46">
-        <v>-0.03046825070185418</v>
+        <v>-0.03029885187297978</v>
       </c>
       <c r="D46">
-        <v>0.01426814523991228</v>
+        <v>0.01195385003449309</v>
       </c>
       <c r="E46">
-        <v>-0.02312941657658083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02699024270370034</v>
+      </c>
+      <c r="F46">
+        <v>-0.04194406885349302</v>
+      </c>
+      <c r="G46">
+        <v>-0.005320320363889272</v>
+      </c>
+      <c r="H46">
+        <v>-0.00695425886865215</v>
+      </c>
+      <c r="I46">
+        <v>-0.01570681340327013</v>
+      </c>
+      <c r="J46">
+        <v>-0.03758385463674983</v>
+      </c>
+      <c r="K46">
+        <v>-0.0478571356952283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03892693063440772</v>
+        <v>0.0476404586915735</v>
       </c>
       <c r="C47">
-        <v>0.008163207381664563</v>
+        <v>-0.006493327243249045</v>
       </c>
       <c r="D47">
-        <v>0.007736129904747174</v>
+        <v>-0.005712323899830426</v>
       </c>
       <c r="E47">
-        <v>-0.02162960425419811</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.003774373719644298</v>
+      </c>
+      <c r="F47">
+        <v>-0.03949783161097993</v>
+      </c>
+      <c r="G47">
+        <v>0.01004224947541874</v>
+      </c>
+      <c r="H47">
+        <v>-0.01366569886366427</v>
+      </c>
+      <c r="I47">
+        <v>-0.02690411784726003</v>
+      </c>
+      <c r="J47">
+        <v>-0.039113734064237</v>
+      </c>
+      <c r="K47">
+        <v>0.006989176079316207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05226063369077666</v>
+        <v>0.04551949454409245</v>
       </c>
       <c r="C48">
-        <v>-0.02197545949458614</v>
+        <v>-0.01626842930934228</v>
       </c>
       <c r="D48">
-        <v>0.02612875264577982</v>
+        <v>-0.009904553613688754</v>
       </c>
       <c r="E48">
-        <v>-0.02861990204489628</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.008175903954560285</v>
+      </c>
+      <c r="F48">
+        <v>-0.04836123476026973</v>
+      </c>
+      <c r="G48">
+        <v>0.001157351281415181</v>
+      </c>
+      <c r="H48">
+        <v>0.006923875398014234</v>
+      </c>
+      <c r="I48">
+        <v>-0.0568956766840192</v>
+      </c>
+      <c r="J48">
+        <v>-0.02006082490088049</v>
+      </c>
+      <c r="K48">
+        <v>-0.04302733747047109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.147548520694301</v>
+        <v>0.2020145026788835</v>
       </c>
       <c r="C49">
-        <v>-0.004086152320320825</v>
+        <v>-0.01282981016486233</v>
       </c>
       <c r="D49">
-        <v>0.07190354639312922</v>
+        <v>0.1633417858496551</v>
       </c>
       <c r="E49">
-        <v>-0.02148662260335881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.004701071949057198</v>
+      </c>
+      <c r="F49">
+        <v>0.1211139214723327</v>
+      </c>
+      <c r="G49">
+        <v>0.1433019666409018</v>
+      </c>
+      <c r="H49">
+        <v>0.1553805993713038</v>
+      </c>
+      <c r="I49">
+        <v>0.1348636540506477</v>
+      </c>
+      <c r="J49">
+        <v>0.08958993023181663</v>
+      </c>
+      <c r="K49">
+        <v>0.2012593278813847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06662408388946658</v>
+        <v>0.05738239001529183</v>
       </c>
       <c r="C50">
-        <v>-0.02043830301770471</v>
+        <v>-0.03108493924902474</v>
       </c>
       <c r="D50">
-        <v>0.03032596942808796</v>
+        <v>0.009185653299593343</v>
       </c>
       <c r="E50">
-        <v>-0.008689589907421268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01068955587631543</v>
+      </c>
+      <c r="F50">
+        <v>-0.03401867037382457</v>
+      </c>
+      <c r="G50">
+        <v>-0.009736730303657595</v>
+      </c>
+      <c r="H50">
+        <v>-0.05658407775283186</v>
+      </c>
+      <c r="I50">
+        <v>-0.03754465616854197</v>
+      </c>
+      <c r="J50">
+        <v>-0.0523795745893874</v>
+      </c>
+      <c r="K50">
+        <v>-0.02697637361346846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03502679627312443</v>
+        <v>0.039977317254405</v>
       </c>
       <c r="C51">
-        <v>0.005891622630699987</v>
+        <v>0.001257102818759738</v>
       </c>
       <c r="D51">
-        <v>-0.0167823377842679</v>
+        <v>-0.01382879156666123</v>
       </c>
       <c r="E51">
-        <v>-0.0054693013473147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.02492778101584772</v>
+      </c>
+      <c r="F51">
+        <v>0.02707674307526595</v>
+      </c>
+      <c r="G51">
+        <v>0.01010283539011035</v>
+      </c>
+      <c r="H51">
+        <v>0.01666038028813157</v>
+      </c>
+      <c r="I51">
+        <v>0.00694807117532076</v>
+      </c>
+      <c r="J51">
+        <v>0.04139426468675971</v>
+      </c>
+      <c r="K51">
+        <v>0.06560293466922325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1554507104737599</v>
+        <v>0.1569125755258148</v>
       </c>
       <c r="C53">
-        <v>0.03599899066687217</v>
+        <v>-0.01325327389160112</v>
       </c>
       <c r="D53">
-        <v>0.06096957504871202</v>
+        <v>0.06367243207085056</v>
       </c>
       <c r="E53">
-        <v>-0.005307258463891999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01335876205090489</v>
+      </c>
+      <c r="F53">
+        <v>0.01301864956908262</v>
+      </c>
+      <c r="G53">
+        <v>0.03491011526864471</v>
+      </c>
+      <c r="H53">
+        <v>-0.2389796835661134</v>
+      </c>
+      <c r="I53">
+        <v>0.03961289794241501</v>
+      </c>
+      <c r="J53">
+        <v>-0.03995482230750715</v>
+      </c>
+      <c r="K53">
+        <v>0.05548781181535454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06631873283494941</v>
+        <v>0.06361727117321027</v>
       </c>
       <c r="C54">
-        <v>-0.01756449979110232</v>
+        <v>-0.01166865584706669</v>
       </c>
       <c r="D54">
-        <v>0.01001024611466158</v>
+        <v>-0.009788884609808786</v>
       </c>
       <c r="E54">
-        <v>-0.03580665795797491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02945763640896262</v>
+      </c>
+      <c r="F54">
+        <v>-0.06841103261137835</v>
+      </c>
+      <c r="G54">
+        <v>-0.06361668035379631</v>
+      </c>
+      <c r="H54">
+        <v>0.005102662692557829</v>
+      </c>
+      <c r="I54">
+        <v>-0.1087103856177461</v>
+      </c>
+      <c r="J54">
+        <v>-0.04463160613809434</v>
+      </c>
+      <c r="K54">
+        <v>-0.07134825130404447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09815889757516465</v>
+        <v>0.0968228902834681</v>
       </c>
       <c r="C55">
-        <v>0.001663072359355741</v>
+        <v>-0.02716741406688753</v>
       </c>
       <c r="D55">
-        <v>0.04877230537735999</v>
+        <v>0.04058609766120686</v>
       </c>
       <c r="E55">
-        <v>-0.02866084566177303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.01063810552342659</v>
+      </c>
+      <c r="F55">
+        <v>-0.01098704805127923</v>
+      </c>
+      <c r="G55">
+        <v>-0.02442096484102039</v>
+      </c>
+      <c r="H55">
+        <v>-0.171100611836722</v>
+      </c>
+      <c r="I55">
+        <v>-0.009002310833128359</v>
+      </c>
+      <c r="J55">
+        <v>-0.03998618866863619</v>
+      </c>
+      <c r="K55">
+        <v>0.04814308971935168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1541402946364919</v>
+        <v>0.1524442816470501</v>
       </c>
       <c r="C56">
-        <v>0.03057180231509367</v>
+        <v>-0.03222059787027767</v>
       </c>
       <c r="D56">
-        <v>0.08133634456049889</v>
+        <v>0.0693096570637404</v>
       </c>
       <c r="E56">
-        <v>-0.04094954430832289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.000185033942331386</v>
+      </c>
+      <c r="F56">
+        <v>-0.00593198173633125</v>
+      </c>
+      <c r="G56">
+        <v>0.01018965619288526</v>
+      </c>
+      <c r="H56">
+        <v>-0.2382568024501687</v>
+      </c>
+      <c r="I56">
+        <v>0.0451925592474497</v>
+      </c>
+      <c r="J56">
+        <v>-0.006804183003477402</v>
+      </c>
+      <c r="K56">
+        <v>0.01612707298112104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1208644050159049</v>
+        <v>0.08151602655621694</v>
       </c>
       <c r="C58">
-        <v>-0.05324153949068729</v>
+        <v>-0.04476364512301025</v>
       </c>
       <c r="D58">
-        <v>-0.1209213514083623</v>
+        <v>-0.1674900361873119</v>
       </c>
       <c r="E58">
-        <v>-0.1333918282880235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.08954778045471604</v>
+      </c>
+      <c r="F58">
+        <v>-0.012172890057454</v>
+      </c>
+      <c r="G58">
+        <v>0.05601747438931829</v>
+      </c>
+      <c r="H58">
+        <v>0.2826233035873737</v>
+      </c>
+      <c r="I58">
+        <v>-0.4779901777081571</v>
+      </c>
+      <c r="J58">
+        <v>-0.04188284846692201</v>
+      </c>
+      <c r="K58">
+        <v>0.2882547796880501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1253370654881428</v>
+        <v>0.163969560347737</v>
       </c>
       <c r="C59">
-        <v>0.4375672238436963</v>
+        <v>0.3571369922013191</v>
       </c>
       <c r="D59">
-        <v>-0.02361738429119116</v>
+        <v>-0.02351052394302601</v>
       </c>
       <c r="E59">
-        <v>-0.08572356475951219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0281949753198628</v>
+      </c>
+      <c r="F59">
+        <v>0.02139218474719473</v>
+      </c>
+      <c r="G59">
+        <v>-0.03564829020666992</v>
+      </c>
+      <c r="H59">
+        <v>-0.05364049898634249</v>
+      </c>
+      <c r="I59">
+        <v>0.01665621062527347</v>
+      </c>
+      <c r="J59">
+        <v>0.0738915361158109</v>
+      </c>
+      <c r="K59">
+        <v>-0.004795793893184433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2187676763044775</v>
+        <v>0.244674130913118</v>
       </c>
       <c r="C60">
-        <v>0.02872272227062493</v>
+        <v>-0.03213974470784216</v>
       </c>
       <c r="D60">
-        <v>0.07446251845309973</v>
+        <v>0.1249550363803786</v>
       </c>
       <c r="E60">
-        <v>-0.0553257785798556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02029779350904094</v>
+      </c>
+      <c r="F60">
+        <v>0.07530211351316707</v>
+      </c>
+      <c r="G60">
+        <v>0.03245347977589848</v>
+      </c>
+      <c r="H60">
+        <v>0.09506802482047716</v>
+      </c>
+      <c r="I60">
+        <v>0.1760654786292221</v>
+      </c>
+      <c r="J60">
+        <v>-0.05840921120106028</v>
+      </c>
+      <c r="K60">
+        <v>0.1380369400317287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08155016335655227</v>
+        <v>0.08836351762988563</v>
       </c>
       <c r="C61">
-        <v>-0.02416139311529503</v>
+        <v>-0.037425382001121</v>
       </c>
       <c r="D61">
-        <v>0.02890058073543664</v>
+        <v>0.02678164164785284</v>
       </c>
       <c r="E61">
-        <v>-0.007533891704135496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01302247907892697</v>
+      </c>
+      <c r="F61">
+        <v>-0.02361779235267373</v>
+      </c>
+      <c r="G61">
+        <v>-0.05658834050350348</v>
+      </c>
+      <c r="H61">
+        <v>-0.04705374958874303</v>
+      </c>
+      <c r="I61">
+        <v>-0.06809469633772663</v>
+      </c>
+      <c r="J61">
+        <v>0.0588977386998159</v>
+      </c>
+      <c r="K61">
+        <v>-0.004621038636210142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1485119568545827</v>
+        <v>0.1464823151885875</v>
       </c>
       <c r="C62">
-        <v>0.0276266216711899</v>
+        <v>-0.0343751465269054</v>
       </c>
       <c r="D62">
-        <v>0.03799240702571961</v>
+        <v>0.04376480826808284</v>
       </c>
       <c r="E62">
-        <v>0.01583813301628249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0397202342676499</v>
+      </c>
+      <c r="F62">
+        <v>0.02594223057508499</v>
+      </c>
+      <c r="G62">
+        <v>-0.01350396773545332</v>
+      </c>
+      <c r="H62">
+        <v>-0.2330561224770579</v>
+      </c>
+      <c r="I62">
+        <v>0.07512239746024327</v>
+      </c>
+      <c r="J62">
+        <v>-0.07201769631138034</v>
+      </c>
+      <c r="K62">
+        <v>0.009075133906098997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06185441833850529</v>
+        <v>0.05404954387359934</v>
       </c>
       <c r="C63">
-        <v>-0.02598467329308708</v>
+        <v>-0.02085131591570284</v>
       </c>
       <c r="D63">
-        <v>0.02016119018343927</v>
+        <v>0.006931719754608901</v>
       </c>
       <c r="E63">
-        <v>-0.0154297036257263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.003914747496939062</v>
+      </c>
+      <c r="F63">
+        <v>-0.0335658591081212</v>
+      </c>
+      <c r="G63">
+        <v>-0.04537556646165778</v>
+      </c>
+      <c r="H63">
+        <v>-0.01278685463844136</v>
+      </c>
+      <c r="I63">
+        <v>-0.03866767857359776</v>
+      </c>
+      <c r="J63">
+        <v>-0.04325610925239434</v>
+      </c>
+      <c r="K63">
+        <v>-0.0389954969181195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1021873748633358</v>
+        <v>0.1066237913366986</v>
       </c>
       <c r="C64">
-        <v>0.002344658196870567</v>
+        <v>-0.01770213032984769</v>
       </c>
       <c r="D64">
-        <v>0.05213637902305144</v>
+        <v>0.04532830703501688</v>
       </c>
       <c r="E64">
-        <v>-0.02971769764174746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03150920080606918</v>
+      </c>
+      <c r="F64">
+        <v>-0.0556466110064635</v>
+      </c>
+      <c r="G64">
+        <v>-0.03576730832465758</v>
+      </c>
+      <c r="H64">
+        <v>0.01811602382225923</v>
+      </c>
+      <c r="I64">
+        <v>-0.05573769338551991</v>
+      </c>
+      <c r="J64">
+        <v>0.03400389272404198</v>
+      </c>
+      <c r="K64">
+        <v>-0.02069814730901834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1184887130578002</v>
+        <v>0.131159519795547</v>
       </c>
       <c r="C65">
-        <v>-0.02031873814185263</v>
+        <v>-0.005758345112367013</v>
       </c>
       <c r="D65">
-        <v>0.04288757910888676</v>
+        <v>0.06006405913147495</v>
       </c>
       <c r="E65">
-        <v>-0.05502991124086401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.005099988788081461</v>
+      </c>
+      <c r="F65">
+        <v>-0.04980178541859658</v>
+      </c>
+      <c r="G65">
+        <v>-0.08255428453853528</v>
+      </c>
+      <c r="H65">
+        <v>0.2327857637933376</v>
+      </c>
+      <c r="I65">
+        <v>0.07123884764152164</v>
+      </c>
+      <c r="J65">
+        <v>-0.6519188526266414</v>
+      </c>
+      <c r="K65">
+        <v>0.0361422828310023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1601830447336073</v>
+        <v>0.1482206564799456</v>
       </c>
       <c r="C66">
-        <v>-0.07500415467114235</v>
+        <v>-0.09470506630172167</v>
       </c>
       <c r="D66">
-        <v>0.05185879146017286</v>
+        <v>0.04288061690769945</v>
       </c>
       <c r="E66">
-        <v>-0.01353216404378525</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0007002395520644079</v>
+      </c>
+      <c r="F66">
+        <v>-0.01981325549901685</v>
+      </c>
+      <c r="G66">
+        <v>-0.0945146803853503</v>
+      </c>
+      <c r="H66">
+        <v>-0.02337895162956773</v>
+      </c>
+      <c r="I66">
+        <v>-0.1515604349688273</v>
+      </c>
+      <c r="J66">
+        <v>0.1882443867566879</v>
+      </c>
+      <c r="K66">
+        <v>-0.04454512561233588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09681633351345931</v>
+        <v>0.09853462714957961</v>
       </c>
       <c r="C67">
-        <v>-0.006391890325562104</v>
+        <v>-0.04088388122944601</v>
       </c>
       <c r="D67">
-        <v>-0.02554023393359902</v>
+        <v>-0.01420099774077714</v>
       </c>
       <c r="E67">
-        <v>-0.005387988294527865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.02928371238481371</v>
+      </c>
+      <c r="F67">
+        <v>0.02480307754156215</v>
+      </c>
+      <c r="G67">
+        <v>-0.00448850573052731</v>
+      </c>
+      <c r="H67">
+        <v>-0.0175346032927625</v>
+      </c>
+      <c r="I67">
+        <v>0.05950440774398202</v>
+      </c>
+      <c r="J67">
+        <v>0.05163564829006759</v>
+      </c>
+      <c r="K67">
+        <v>-0.04542958760573676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04085582823082444</v>
+        <v>0.07601486773926872</v>
       </c>
       <c r="C68">
-        <v>0.2592821021862471</v>
+        <v>0.2808629576803133</v>
       </c>
       <c r="D68">
-        <v>-0.01597735674662758</v>
+        <v>-0.02007630042058845</v>
       </c>
       <c r="E68">
-        <v>-0.04313984890719366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02339142395017652</v>
+      </c>
+      <c r="F68">
+        <v>-0.03758481535911456</v>
+      </c>
+      <c r="G68">
+        <v>0.006861560002386784</v>
+      </c>
+      <c r="H68">
+        <v>-0.01459833022011488</v>
+      </c>
+      <c r="I68">
+        <v>-0.03260444870122138</v>
+      </c>
+      <c r="J68">
+        <v>-0.04326094685652221</v>
+      </c>
+      <c r="K68">
+        <v>-0.009029994719902391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06909742744296132</v>
+        <v>0.05827884125473708</v>
       </c>
       <c r="C69">
-        <v>-0.01229750056873193</v>
+        <v>-0.01741471284275979</v>
       </c>
       <c r="D69">
-        <v>-0.002469304722398639</v>
+        <v>-0.02186563049891854</v>
       </c>
       <c r="E69">
-        <v>-0.01641543630908988</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.004565119977276189</v>
+      </c>
+      <c r="F69">
+        <v>-0.009351941161398923</v>
+      </c>
+      <c r="G69">
+        <v>-0.008784890054287939</v>
+      </c>
+      <c r="H69">
+        <v>-0.03112067059272417</v>
+      </c>
+      <c r="I69">
+        <v>-0.01304991810338502</v>
+      </c>
+      <c r="J69">
+        <v>0.0005520243593518183</v>
+      </c>
+      <c r="K69">
+        <v>0.008439600322837982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01336559114047702</v>
+        <v>0.03775847261754295</v>
       </c>
       <c r="C70">
-        <v>0.01180023380878949</v>
+        <v>-0.003847026374081495</v>
       </c>
       <c r="D70">
-        <v>-0.005278910454740241</v>
+        <v>0.00290125122800628</v>
       </c>
       <c r="E70">
-        <v>0.01489941385458042</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.01117734627988985</v>
+      </c>
+      <c r="F70">
+        <v>0.04978062070084662</v>
+      </c>
+      <c r="G70">
+        <v>0.006463379311351913</v>
+      </c>
+      <c r="H70">
+        <v>0.04195243324035251</v>
+      </c>
+      <c r="I70">
+        <v>0.0236486954735353</v>
+      </c>
+      <c r="J70">
+        <v>0.021558008101722</v>
+      </c>
+      <c r="K70">
+        <v>-0.127409835199234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03746375825754875</v>
+        <v>0.08411246312676124</v>
       </c>
       <c r="C71">
-        <v>0.2899431539013663</v>
+        <v>0.3011240354417055</v>
       </c>
       <c r="D71">
-        <v>-0.02424060973059691</v>
+        <v>-0.01045994080476466</v>
       </c>
       <c r="E71">
-        <v>-0.08015766069472816</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.04003950024178058</v>
+      </c>
+      <c r="F71">
+        <v>-0.02780134413957895</v>
+      </c>
+      <c r="G71">
+        <v>-0.0006454914031909319</v>
+      </c>
+      <c r="H71">
+        <v>-0.01562911815766015</v>
+      </c>
+      <c r="I71">
+        <v>-0.02394591467107623</v>
+      </c>
+      <c r="J71">
+        <v>-0.01578898080781592</v>
+      </c>
+      <c r="K71">
+        <v>-0.0001451592284939656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1485059073398317</v>
+        <v>0.1378969966634047</v>
       </c>
       <c r="C72">
-        <v>0.04442463615178245</v>
+        <v>0.001588165796304355</v>
       </c>
       <c r="D72">
-        <v>0.03676370713726624</v>
+        <v>-0.0198610288755329</v>
       </c>
       <c r="E72">
-        <v>0.231676513078526</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1772860112094232</v>
+      </c>
+      <c r="F72">
+        <v>-0.002826353845050519</v>
+      </c>
+      <c r="G72">
+        <v>-0.1183419007150882</v>
+      </c>
+      <c r="H72">
+        <v>-0.0188051355427107</v>
+      </c>
+      <c r="I72">
+        <v>0.05175956079846191</v>
+      </c>
+      <c r="J72">
+        <v>-0.09978904300402833</v>
+      </c>
+      <c r="K72">
+        <v>0.1160799261206086</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2542993047155796</v>
+        <v>0.2484233307114154</v>
       </c>
       <c r="C73">
-        <v>-0.04740681327000352</v>
+        <v>-0.09734857962865733</v>
       </c>
       <c r="D73">
-        <v>0.09479787733096534</v>
+        <v>0.1833660645369463</v>
       </c>
       <c r="E73">
-        <v>-0.07395900675226287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.03528714279863772</v>
+      </c>
+      <c r="F73">
+        <v>0.2504748700022896</v>
+      </c>
+      <c r="G73">
+        <v>0.1918659080790979</v>
+      </c>
+      <c r="H73">
+        <v>0.229608626197224</v>
+      </c>
+      <c r="I73">
+        <v>0.0610484946092807</v>
+      </c>
+      <c r="J73">
+        <v>0.2463287951655741</v>
+      </c>
+      <c r="K73">
+        <v>0.4872086113127062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08607023838776173</v>
+        <v>0.09244339321025677</v>
       </c>
       <c r="C74">
-        <v>0.01765508872001901</v>
+        <v>-0.02843387060120099</v>
       </c>
       <c r="D74">
-        <v>0.05529687015641894</v>
+        <v>0.04717838750062334</v>
       </c>
       <c r="E74">
-        <v>-0.002180092751379783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01556390927114124</v>
+      </c>
+      <c r="F74">
+        <v>-0.007753389839543471</v>
+      </c>
+      <c r="G74">
+        <v>0.03563201973348037</v>
+      </c>
+      <c r="H74">
+        <v>-0.1408097212103067</v>
+      </c>
+      <c r="I74">
+        <v>-0.02391902969057692</v>
+      </c>
+      <c r="J74">
+        <v>-0.007247735349829186</v>
+      </c>
+      <c r="K74">
+        <v>0.06130550328137414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1214891197351016</v>
+        <v>0.1052662746696895</v>
       </c>
       <c r="C75">
-        <v>0.003176598612215316</v>
+        <v>-0.02806099848546572</v>
       </c>
       <c r="D75">
-        <v>0.005015106892246765</v>
+        <v>-0.01499252132451147</v>
       </c>
       <c r="E75">
-        <v>-0.02133350316323328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.001539876426227361</v>
+      </c>
+      <c r="F75">
+        <v>0.02220075599557711</v>
+      </c>
+      <c r="G75">
+        <v>0.01774982650698747</v>
+      </c>
+      <c r="H75">
+        <v>-0.121695761781809</v>
+      </c>
+      <c r="I75">
+        <v>0.03393757510757248</v>
+      </c>
+      <c r="J75">
+        <v>-0.03070696155757788</v>
+      </c>
+      <c r="K75">
+        <v>0.008462861897914726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1443040765459863</v>
+        <v>0.1316034665968915</v>
       </c>
       <c r="C76">
-        <v>0.003425091921180445</v>
+        <v>-0.04922120025485777</v>
       </c>
       <c r="D76">
-        <v>0.06763784692461514</v>
+        <v>0.06323499958695622</v>
       </c>
       <c r="E76">
-        <v>-0.02970388263109699</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.008207717358726545</v>
+      </c>
+      <c r="F76">
+        <v>-0.01322350517928149</v>
+      </c>
+      <c r="G76">
+        <v>0.01601527455848746</v>
+      </c>
+      <c r="H76">
+        <v>-0.2757524992965677</v>
+      </c>
+      <c r="I76">
+        <v>0.01459314751536802</v>
+      </c>
+      <c r="J76">
+        <v>-0.03503134505961481</v>
+      </c>
+      <c r="K76">
+        <v>0.0414162045818205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1316546877061587</v>
+        <v>0.09219991505714735</v>
       </c>
       <c r="C77">
-        <v>-0.04016860879950725</v>
+        <v>-0.03384213701316123</v>
       </c>
       <c r="D77">
-        <v>-0.05052451736443936</v>
+        <v>-0.1314999786715056</v>
       </c>
       <c r="E77">
-        <v>-0.04752049537149816</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.07630397467770347</v>
+      </c>
+      <c r="F77">
+        <v>-0.07995095451535122</v>
+      </c>
+      <c r="G77">
+        <v>-0.6896372518270885</v>
+      </c>
+      <c r="H77">
+        <v>0.1728062527009722</v>
+      </c>
+      <c r="I77">
+        <v>0.4319454947431635</v>
+      </c>
+      <c r="J77">
+        <v>0.2593828505283203</v>
+      </c>
+      <c r="K77">
+        <v>0.006733322568735445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1221050187104184</v>
+        <v>0.1564654988695765</v>
       </c>
       <c r="C78">
-        <v>-0.06439228632631129</v>
+        <v>-0.07419835847192971</v>
       </c>
       <c r="D78">
-        <v>0.04566078089762058</v>
+        <v>0.01408903108534069</v>
       </c>
       <c r="E78">
-        <v>-0.01328869851881307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08346132808672051</v>
+      </c>
+      <c r="F78">
+        <v>-0.1565846367916533</v>
+      </c>
+      <c r="G78">
+        <v>-0.0251984056298506</v>
+      </c>
+      <c r="H78">
+        <v>0.1451078898307992</v>
+      </c>
+      <c r="I78">
+        <v>0.08190799791509257</v>
+      </c>
+      <c r="J78">
+        <v>-0.0609516500114051</v>
+      </c>
+      <c r="K78">
+        <v>-0.006880401884773505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1523959870316065</v>
+        <v>0.1456138666830105</v>
       </c>
       <c r="C79">
-        <v>-0.01766470693088885</v>
+        <v>-0.04133749513966101</v>
       </c>
       <c r="D79">
-        <v>0.06009959861254431</v>
+        <v>0.04429281359498019</v>
       </c>
       <c r="E79">
-        <v>-0.002176398539682767</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.006230853691508605</v>
+      </c>
+      <c r="F79">
+        <v>-0.0007670805576612264</v>
+      </c>
+      <c r="G79">
+        <v>-0.01929684582951939</v>
+      </c>
+      <c r="H79">
+        <v>-0.1975674960499343</v>
+      </c>
+      <c r="I79">
+        <v>0.04662446572804457</v>
+      </c>
+      <c r="J79">
+        <v>-0.06389446610396189</v>
+      </c>
+      <c r="K79">
+        <v>0.02022322712648367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03937501034751913</v>
+        <v>0.04462917168807408</v>
       </c>
       <c r="C80">
-        <v>-0.01674650484090141</v>
+        <v>-0.005677809849083985</v>
       </c>
       <c r="D80">
-        <v>0.01296801599813948</v>
+        <v>0.04427262125214497</v>
       </c>
       <c r="E80">
-        <v>-0.003475758545828904</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01007484642624504</v>
+      </c>
+      <c r="F80">
+        <v>0.03707444233179234</v>
+      </c>
+      <c r="G80">
+        <v>-0.007619877909095824</v>
+      </c>
+      <c r="H80">
+        <v>0.03969701009359851</v>
+      </c>
+      <c r="I80">
+        <v>-0.08212928519946738</v>
+      </c>
+      <c r="J80">
+        <v>-0.01524892256340102</v>
+      </c>
+      <c r="K80">
+        <v>-0.02128676437492678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1363206213137328</v>
+        <v>0.1330290881589107</v>
       </c>
       <c r="C81">
-        <v>0.003881642923905911</v>
+        <v>-0.01701638782256316</v>
       </c>
       <c r="D81">
-        <v>0.0473975241855103</v>
+        <v>0.03759003579047414</v>
       </c>
       <c r="E81">
-        <v>-0.02835333924898386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.004954212662571608</v>
+      </c>
+      <c r="F81">
+        <v>0.001926297121210461</v>
+      </c>
+      <c r="G81">
+        <v>-0.005617590417172016</v>
+      </c>
+      <c r="H81">
+        <v>-0.1550938978922191</v>
+      </c>
+      <c r="I81">
+        <v>0.001380923862364666</v>
+      </c>
+      <c r="J81">
+        <v>0.01986254570628252</v>
+      </c>
+      <c r="K81">
+        <v>-0.01531587197914596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1237739571227256</v>
+        <v>0.1264397077776982</v>
       </c>
       <c r="C82">
-        <v>-0.0160659506959091</v>
+        <v>-0.02981232089451924</v>
       </c>
       <c r="D82">
-        <v>0.02388590352893389</v>
+        <v>0.0364797454000149</v>
       </c>
       <c r="E82">
-        <v>-0.04102181531989402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.007095877175441989</v>
+      </c>
+      <c r="F82">
+        <v>0.02565229926966455</v>
+      </c>
+      <c r="G82">
+        <v>0.01915939851439796</v>
+      </c>
+      <c r="H82">
+        <v>-0.2838077068336505</v>
+      </c>
+      <c r="I82">
+        <v>0.008990738614003088</v>
+      </c>
+      <c r="J82">
+        <v>0.009323480205740189</v>
+      </c>
+      <c r="K82">
+        <v>-0.005423902773805507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05358763489479999</v>
+        <v>0.0778047855694502</v>
       </c>
       <c r="C83">
-        <v>-0.01646972223798516</v>
+        <v>-0.02929649440743984</v>
       </c>
       <c r="D83">
-        <v>-0.06036750885513725</v>
+        <v>-0.02285578825527151</v>
       </c>
       <c r="E83">
-        <v>-0.01876884878487682</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02265796684319731</v>
+      </c>
+      <c r="F83">
+        <v>0.07372768148235585</v>
+      </c>
+      <c r="G83">
+        <v>0.0283180441444814</v>
+      </c>
+      <c r="H83">
+        <v>0.08606460684064955</v>
+      </c>
+      <c r="I83">
+        <v>-0.08467325188091969</v>
+      </c>
+      <c r="J83">
+        <v>0.01775803534194242</v>
+      </c>
+      <c r="K83">
+        <v>-0.03934173263506251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05182689922304216</v>
+        <v>0.03482147300776596</v>
       </c>
       <c r="C84">
-        <v>-0.0129678171120009</v>
+        <v>-0.04160341572609681</v>
       </c>
       <c r="D84">
-        <v>0.04607811672139269</v>
+        <v>0.001956672675860658</v>
       </c>
       <c r="E84">
-        <v>0.03430278170151002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.04143580360443219</v>
+      </c>
+      <c r="F84">
+        <v>-0.04505322164433156</v>
+      </c>
+      <c r="G84">
+        <v>0.03696516166466084</v>
+      </c>
+      <c r="H84">
+        <v>0.007635174423940272</v>
+      </c>
+      <c r="I84">
+        <v>-0.1306990407519358</v>
+      </c>
+      <c r="J84">
+        <v>-0.008512568997475349</v>
+      </c>
+      <c r="K84">
+        <v>-0.1038914702801305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1157438621334665</v>
+        <v>0.1218692369962553</v>
       </c>
       <c r="C85">
-        <v>-0.03493730094733474</v>
+        <v>-0.03913282328349424</v>
       </c>
       <c r="D85">
-        <v>0.0180048964378039</v>
+        <v>0.02116285794813975</v>
       </c>
       <c r="E85">
-        <v>-0.06326758445394701</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03800361565797205</v>
+      </c>
+      <c r="F85">
+        <v>-0.005066679962868018</v>
+      </c>
+      <c r="G85">
+        <v>-0.009168638353797953</v>
+      </c>
+      <c r="H85">
+        <v>-0.2003567857935973</v>
+      </c>
+      <c r="I85">
+        <v>0.02216585719568175</v>
+      </c>
+      <c r="J85">
+        <v>-0.06925109911818085</v>
+      </c>
+      <c r="K85">
+        <v>0.02293392538235731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07592299617207067</v>
+        <v>0.06683224176691194</v>
       </c>
       <c r="C86">
-        <v>-0.06372810456574958</v>
+        <v>-0.03198443119774291</v>
       </c>
       <c r="D86">
-        <v>0.01664955906889728</v>
+        <v>-0.01493502390029411</v>
       </c>
       <c r="E86">
-        <v>-0.02658388726615581</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03452673002453292</v>
+      </c>
+      <c r="F86">
+        <v>-0.03394791102486799</v>
+      </c>
+      <c r="G86">
+        <v>-0.002194280729769548</v>
+      </c>
+      <c r="H86">
+        <v>0.04273427707268094</v>
+      </c>
+      <c r="I86">
+        <v>0.07981673289904423</v>
+      </c>
+      <c r="J86">
+        <v>-0.02942942918693764</v>
+      </c>
+      <c r="K86">
+        <v>-0.102469932540981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1338577781645832</v>
+        <v>0.1318183683141999</v>
       </c>
       <c r="C87">
-        <v>-0.07158080764929478</v>
+        <v>-0.07132321074458221</v>
       </c>
       <c r="D87">
-        <v>0.06279850529216079</v>
+        <v>0.01202767698479733</v>
       </c>
       <c r="E87">
-        <v>-0.04030835811743393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.02866262946641857</v>
+      </c>
+      <c r="F87">
+        <v>-0.09267779126392925</v>
+      </c>
+      <c r="G87">
+        <v>-0.1958695703475058</v>
+      </c>
+      <c r="H87">
+        <v>0.0566203238145513</v>
+      </c>
+      <c r="I87">
+        <v>0.02814800197558892</v>
+      </c>
+      <c r="J87">
+        <v>0.04714079453972812</v>
+      </c>
+      <c r="K87">
+        <v>-0.01753498949799156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06090526157748265</v>
+        <v>0.06570317628768139</v>
       </c>
       <c r="C88">
-        <v>-0.02276571584322331</v>
+        <v>-0.03762895455709</v>
       </c>
       <c r="D88">
-        <v>0.01561102471744863</v>
+        <v>0.02900716584735349</v>
       </c>
       <c r="E88">
-        <v>-0.009802808807103878</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009031081748599335</v>
+      </c>
+      <c r="F88">
+        <v>0.004623612325996512</v>
+      </c>
+      <c r="G88">
+        <v>-0.01186288830658127</v>
+      </c>
+      <c r="H88">
+        <v>-0.01499297946548295</v>
+      </c>
+      <c r="I88">
+        <v>-0.04667476770022014</v>
+      </c>
+      <c r="J88">
+        <v>0.01211703400803993</v>
+      </c>
+      <c r="K88">
+        <v>-0.02214138645523832</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07275727613288513</v>
+        <v>0.136548477602492</v>
       </c>
       <c r="C89">
-        <v>0.3274536590266373</v>
+        <v>0.3776208154129329</v>
       </c>
       <c r="D89">
-        <v>-0.01882648373584167</v>
+        <v>0.0006744011942009012</v>
       </c>
       <c r="E89">
-        <v>-0.107255199620816</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08711254650216259</v>
+      </c>
+      <c r="F89">
+        <v>-0.02161308194370709</v>
+      </c>
+      <c r="G89">
+        <v>0.01773489912912345</v>
+      </c>
+      <c r="H89">
+        <v>0.01313736547688397</v>
+      </c>
+      <c r="I89">
+        <v>-0.07782274392617144</v>
+      </c>
+      <c r="J89">
+        <v>0.0636370750390883</v>
+      </c>
+      <c r="K89">
+        <v>0.01292582948557504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06171608704459317</v>
+        <v>0.09753663099212369</v>
       </c>
       <c r="C90">
-        <v>0.2887232563185178</v>
+        <v>0.281945798279145</v>
       </c>
       <c r="D90">
-        <v>-0.03978849931839953</v>
+        <v>-0.02900920177380399</v>
       </c>
       <c r="E90">
-        <v>-0.0536960834402815</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02951812898371482</v>
+      </c>
+      <c r="F90">
+        <v>-0.006779035469651189</v>
+      </c>
+      <c r="G90">
+        <v>-0.03185844247496628</v>
+      </c>
+      <c r="H90">
+        <v>0.04111021099746293</v>
+      </c>
+      <c r="I90">
+        <v>-0.07280375795028679</v>
+      </c>
+      <c r="J90">
+        <v>0.03748064329797414</v>
+      </c>
+      <c r="K90">
+        <v>0.02334959423005155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1033055143923138</v>
+        <v>0.09037503319578595</v>
       </c>
       <c r="C91">
-        <v>-0.008999495979318302</v>
+        <v>-0.03452785246258355</v>
       </c>
       <c r="D91">
-        <v>0.02694507129603949</v>
+        <v>0.008382058535859809</v>
       </c>
       <c r="E91">
-        <v>-0.0134226408436806</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.001365035220568526</v>
+      </c>
+      <c r="F91">
+        <v>0.006674828544462871</v>
+      </c>
+      <c r="G91">
+        <v>0.02134887251161982</v>
+      </c>
+      <c r="H91">
+        <v>-0.08959098175786331</v>
+      </c>
+      <c r="I91">
+        <v>0.01514692762321868</v>
+      </c>
+      <c r="J91">
+        <v>-0.008095732882906451</v>
+      </c>
+      <c r="K91">
+        <v>0.02262083940407672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04442358946824405</v>
+        <v>0.09651300789881556</v>
       </c>
       <c r="C92">
-        <v>0.3426449154800313</v>
+        <v>0.3414321183800557</v>
       </c>
       <c r="D92">
-        <v>0.00165436706364045</v>
+        <v>0.005343817007457722</v>
       </c>
       <c r="E92">
-        <v>-0.08893257594418033</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.04605595846859992</v>
+      </c>
+      <c r="F92">
+        <v>-0.03962602461250301</v>
+      </c>
+      <c r="G92">
+        <v>0.01664239072899331</v>
+      </c>
+      <c r="H92">
+        <v>-0.01146013824125097</v>
+      </c>
+      <c r="I92">
+        <v>-0.03421820594962511</v>
+      </c>
+      <c r="J92">
+        <v>0.02341675214940242</v>
+      </c>
+      <c r="K92">
+        <v>0.004600088071661116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04115388337035348</v>
+        <v>0.09778291276704799</v>
       </c>
       <c r="C93">
-        <v>0.3016324709689962</v>
+        <v>0.319003238247601</v>
       </c>
       <c r="D93">
-        <v>-0.01872558727618304</v>
+        <v>0.001557230544975207</v>
       </c>
       <c r="E93">
-        <v>-0.05582427906992901</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02139902130606649</v>
+      </c>
+      <c r="F93">
+        <v>-0.001039027856469499</v>
+      </c>
+      <c r="G93">
+        <v>0.003924354152204129</v>
+      </c>
+      <c r="H93">
+        <v>0.01137107384710023</v>
+      </c>
+      <c r="I93">
+        <v>-0.002123111252963169</v>
+      </c>
+      <c r="J93">
+        <v>-0.008294675612962947</v>
+      </c>
+      <c r="K93">
+        <v>-0.03192621895056009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1285732461870688</v>
+        <v>0.1228087856524099</v>
       </c>
       <c r="C94">
-        <v>-0.05242818090561845</v>
+        <v>-0.05400170232229067</v>
       </c>
       <c r="D94">
-        <v>0.02662806611159359</v>
+        <v>0.009614795382479493</v>
       </c>
       <c r="E94">
-        <v>-0.03787457528324966</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.02951295270765958</v>
+      </c>
+      <c r="F94">
+        <v>-0.005850582241910528</v>
+      </c>
+      <c r="G94">
+        <v>0.05280622087965374</v>
+      </c>
+      <c r="H94">
+        <v>-0.1185253921262422</v>
+      </c>
+      <c r="I94">
+        <v>0.01401611079994449</v>
+      </c>
+      <c r="J94">
+        <v>-0.0174593186214407</v>
+      </c>
+      <c r="K94">
+        <v>0.01994003715889327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1326574712814939</v>
+        <v>0.141395862695576</v>
       </c>
       <c r="C95">
-        <v>-0.07187184171859962</v>
+        <v>-0.06434714966403983</v>
       </c>
       <c r="D95">
-        <v>0.06969330677985769</v>
+        <v>0.03654412996636461</v>
       </c>
       <c r="E95">
-        <v>-0.06295553992371555</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03859025815568928</v>
+      </c>
+      <c r="F95">
+        <v>-0.04198936061561655</v>
+      </c>
+      <c r="G95">
+        <v>-0.0388466730876415</v>
+      </c>
+      <c r="H95">
+        <v>0.1515898881113798</v>
+      </c>
+      <c r="I95">
+        <v>-0.01073471331053977</v>
+      </c>
+      <c r="J95">
+        <v>-0.004810285137209372</v>
+      </c>
+      <c r="K95">
+        <v>0.01434105498963849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2473953455282413</v>
+        <v>0.1868437415646492</v>
       </c>
       <c r="C97">
-        <v>0.1436803709227476</v>
+        <v>0.0383073837098721</v>
       </c>
       <c r="D97">
-        <v>0.04659624053935266</v>
+        <v>-0.2684701645884476</v>
       </c>
       <c r="E97">
-        <v>0.8880491274429537</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.899692894831786</v>
+      </c>
+      <c r="F97">
+        <v>-0.06431019271715477</v>
+      </c>
+      <c r="G97">
+        <v>-0.02097519063975668</v>
+      </c>
+      <c r="H97">
+        <v>0.05493341223014656</v>
+      </c>
+      <c r="I97">
+        <v>-0.0433749015536908</v>
+      </c>
+      <c r="J97">
+        <v>0.02754189654708559</v>
+      </c>
+      <c r="K97">
+        <v>0.0500541094820414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.282706886086308</v>
+        <v>0.2866684953993592</v>
       </c>
       <c r="C98">
-        <v>-0.03244683180204548</v>
+        <v>-0.08514678129433756</v>
       </c>
       <c r="D98">
-        <v>-0.01180132016040658</v>
+        <v>0.08466799458320193</v>
       </c>
       <c r="E98">
-        <v>-0.04362394124268273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04564218222506518</v>
+      </c>
+      <c r="F98">
+        <v>0.3070888545216114</v>
+      </c>
+      <c r="G98">
+        <v>0.3127403011109264</v>
+      </c>
+      <c r="H98">
+        <v>0.2524300853182071</v>
+      </c>
+      <c r="I98">
+        <v>0.1694505964626281</v>
+      </c>
+      <c r="J98">
+        <v>0.1297352099599734</v>
+      </c>
+      <c r="K98">
+        <v>-0.6139479197887618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2349992308549784</v>
+        <v>0.1556032369043849</v>
       </c>
       <c r="C99">
-        <v>-0.07661111201187029</v>
+        <v>-0.06846076152661587</v>
       </c>
       <c r="D99">
-        <v>-0.9278834601938628</v>
+        <v>-0.7528047926153059</v>
       </c>
       <c r="E99">
-        <v>0.01717082197332402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.2283883234618294</v>
+      </c>
+      <c r="F99">
+        <v>0.4959306237627836</v>
+      </c>
+      <c r="G99">
+        <v>-0.0409757813058092</v>
+      </c>
+      <c r="H99">
+        <v>-0.1065085086591704</v>
+      </c>
+      <c r="I99">
+        <v>-0.02878678930579968</v>
+      </c>
+      <c r="J99">
+        <v>-0.1133194493271569</v>
+      </c>
+      <c r="K99">
+        <v>0.02162538214373979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05925575931622721</v>
+        <v>0.05539749984925818</v>
       </c>
       <c r="C101">
-        <v>0.002662405348828652</v>
+        <v>-0.01019867518228336</v>
       </c>
       <c r="D101">
-        <v>0.03131801977725966</v>
+        <v>0.02237673109537419</v>
       </c>
       <c r="E101">
-        <v>-0.02556660150294895</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01884969858743239</v>
+      </c>
+      <c r="F101">
+        <v>-0.03597815250325756</v>
+      </c>
+      <c r="G101">
+        <v>-0.02777932254847397</v>
+      </c>
+      <c r="H101">
+        <v>-0.05349045418662027</v>
+      </c>
+      <c r="I101">
+        <v>-0.04856266120101729</v>
+      </c>
+      <c r="J101">
+        <v>-0.02894757496395492</v>
+      </c>
+      <c r="K101">
+        <v>-0.03579280008787274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
